--- a/medicine/Premiers secours et secourisme/Moto_médicale/Moto_médicale.xlsx
+++ b/medicine/Premiers secours et secourisme/Moto_médicale/Moto_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moto_m%C3%A9dicale</t>
+          <t>Moto_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une moto-médicale est une moto utilisée pour transporter des articles médicaux urgents et de secours, y compris du sang, des radiographies, des échantillons, des médicaments et de la documentation entre les hôpitaux et d'autres établissements de santé[1],[2].
-Au Royaume-Uni et en Irlande, un réseau d'organismes caritatifs enregistrés largement indépendants, dont les membres sont tous des bénévoles non rémunérés, fournit des services de transport de sang à moto en collaboration avec les autorités sanitaires locales. Nombre d'entre elles sont représentées par la Nationwide Association of Blood Bikes (NABB)[3],[4].
-Il existe également des services commerciaux de transport du sang par moto[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une moto-médicale est une moto utilisée pour transporter des articles médicaux urgents et de secours, y compris du sang, des radiographies, des échantillons, des médicaments et de la documentation entre les hôpitaux et d'autres établissements de santé,.
+Au Royaume-Uni et en Irlande, un réseau d'organismes caritatifs enregistrés largement indépendants, dont les membres sont tous des bénévoles non rémunérés, fournit des services de transport de sang à moto en collaboration avec les autorités sanitaires locales. Nombre d'entre elles sont représentées par la Nationwide Association of Blood Bikes (NABB),.
+Il existe également des services commerciaux de transport du sang par moto.
 </t>
         </is>
       </c>
